--- a/FrameworkCarehubble/TestData/Data.xlsx
+++ b/FrameworkCarehubble/TestData/Data.xlsx
@@ -16,12 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>12345Qwe!@</t>
   </si>
   <si>
     <t>shahid+257@troontechnologies.comm</t>
+  </si>
+  <si>
+    <t>shahid+257@troontechnologies.com</t>
+  </si>
+  <si>
+    <t>12345Qwe!@#</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>" "</t>
   </si>
 </sst>
 </file>
@@ -366,9 +378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -384,10 +398,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
